--- a/data/trans_orig/P24B-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P24B-Habitat-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>39623</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>28839</v>
+        <v>28181</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>53087</v>
+        <v>53311</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1245113565368738</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09062397742979708</v>
+        <v>0.08855617376275905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1668187296394761</v>
+        <v>0.1675217327252713</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -764,19 +764,19 @@
         <v>26300</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>17334</v>
+        <v>18181</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>36481</v>
+        <v>36035</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1625485562763163</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1071311275698476</v>
+        <v>0.1123705865249843</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2254734134460924</v>
+        <v>0.2227139971891059</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>63</v>
@@ -785,19 +785,19 @@
         <v>65924</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>51601</v>
+        <v>52579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>81596</v>
+        <v>82671</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1373321774745947</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1074947430584301</v>
+        <v>0.1095333486278356</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.1699801591451751</v>
+        <v>0.1722207567312694</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>241293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>225804</v>
+        <v>224743</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>257060</v>
+        <v>256003</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7582315398110855</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7095600731942913</v>
+        <v>0.7062252637674842</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8077773967258534</v>
+        <v>0.8044563000007227</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>115</v>
@@ -835,19 +835,19 @@
         <v>115316</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>102663</v>
+        <v>102645</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>125838</v>
+        <v>125338</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7127131814570323</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6345120359318773</v>
+        <v>0.6343998907252999</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7777451341396017</v>
+        <v>0.7746521812823021</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>349</v>
@@ -856,19 +856,19 @@
         <v>356609</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>337716</v>
+        <v>335687</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>374039</v>
+        <v>374077</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7428891190799616</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7035307415348723</v>
+        <v>0.699303410291746</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.779198323047483</v>
+        <v>0.7792787010233669</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>37315</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>27685</v>
+        <v>26919</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>50497</v>
+        <v>50429</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1172571036520407</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08699805321599165</v>
+        <v>0.08458946703217492</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1586788493613064</v>
+        <v>0.1584679002215865</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>22</v>
@@ -906,19 +906,19 @@
         <v>20183</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>12872</v>
+        <v>13621</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29483</v>
+        <v>29859</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1247382622666514</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07955826848714947</v>
+        <v>0.08418310582625239</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1822205956628638</v>
+        <v>0.1845423626235803</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>59</v>
@@ -927,19 +927,19 @@
         <v>57497</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>45647</v>
+        <v>44485</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>73335</v>
+        <v>73417</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1197787034454438</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.09509133981687562</v>
+        <v>0.09267045800890794</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1527716626610356</v>
+        <v>0.1529421823963724</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>58005</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45814</v>
+        <v>44811</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75545</v>
+        <v>74484</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1427708436858612</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1127652857777343</v>
+        <v>0.1102953730569645</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1859421920942295</v>
+        <v>0.1833315461130488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -1052,19 +1052,19 @@
         <v>43241</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>32169</v>
+        <v>31990</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>55333</v>
+        <v>56679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1903738109125924</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1416286200514298</v>
+        <v>0.1408391628568038</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2436127038108022</v>
+        <v>0.2495389504010387</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>95</v>
@@ -1073,19 +1073,19 @@
         <v>101246</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83192</v>
+        <v>84566</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>119983</v>
+        <v>123862</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1598407151871668</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1313392545305058</v>
+        <v>0.1335078055250619</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1894227643464459</v>
+        <v>0.1955459779125976</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>292901</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>272054</v>
+        <v>274466</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>308654</v>
+        <v>310881</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.7209345826277402</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6696216095715755</v>
+        <v>0.6755578153192995</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7597077870549622</v>
+        <v>0.7651892519716681</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>133</v>
@@ -1123,19 +1123,19 @@
         <v>141785</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>126549</v>
+        <v>126969</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>156151</v>
+        <v>156189</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6242278784461179</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5571501966268915</v>
+        <v>0.5589995528077101</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.68747695447146</v>
+        <v>0.6876461904218539</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>407</v>
@@ -1144,19 +1144,19 @@
         <v>434686</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>411176</v>
+        <v>409502</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>459009</v>
+        <v>457804</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6862566810206302</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6491401837705988</v>
+        <v>0.6464976368510589</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7246559545704863</v>
+        <v>0.7227547405415523</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>55374</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>43259</v>
+        <v>41663</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>70693</v>
+        <v>71382</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1362945736863986</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1064758765435558</v>
+        <v>0.1025476057517192</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1739996629567266</v>
+        <v>0.1756958265736203</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>41</v>
@@ -1194,19 +1194,19 @@
         <v>42111</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>31152</v>
+        <v>32316</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>54696</v>
+        <v>55275</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1853983106412896</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1371497284962903</v>
+        <v>0.1422771632394247</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2408074186535486</v>
+        <v>0.2433584128134846</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>91</v>
@@ -1215,19 +1215,19 @@
         <v>97484</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>80847</v>
+        <v>77941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>116970</v>
+        <v>116477</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.153902603792203</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1276370058772838</v>
+        <v>0.1230488903849006</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1846652033560486</v>
+        <v>0.1838864604585708</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>54238</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41739</v>
+        <v>41304</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67459</v>
+        <v>68547</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.21423964040841</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1648716278134018</v>
+        <v>0.163150251009693</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2664645344621517</v>
+        <v>0.2707632771492381</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>27</v>
@@ -1340,19 +1340,19 @@
         <v>27081</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>18886</v>
+        <v>18537</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>36627</v>
+        <v>37595</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1592994393444231</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1110911262437972</v>
+        <v>0.1090393895942986</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2154538237876795</v>
+        <v>0.2211459251162908</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>78</v>
@@ -1361,19 +1361,19 @@
         <v>81319</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>65206</v>
+        <v>66524</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>99245</v>
+        <v>98606</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1921680974431011</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.154092698109855</v>
+        <v>0.1572056841406344</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2345318688278838</v>
+        <v>0.2330212201972066</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>167995</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>151840</v>
+        <v>151809</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>183320</v>
+        <v>183015</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.6635859605434394</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5997732402309035</v>
+        <v>0.5996476891023405</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7241180171455256</v>
+        <v>0.7229143837017983</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>100</v>
@@ -1411,19 +1411,19 @@
         <v>95870</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>83060</v>
+        <v>82758</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>108676</v>
+        <v>107603</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.5639407160188583</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.4885868605233437</v>
+        <v>0.4868060919880675</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.6392656668738994</v>
+        <v>0.6329523471124541</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>258</v>
@@ -1432,19 +1432,19 @@
         <v>263866</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243042</v>
+        <v>242490</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>283805</v>
+        <v>282769</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6235547219745904</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.5743443109714916</v>
+        <v>0.5730404606488759</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.6706726385228621</v>
+        <v>0.6682262975167588</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>30930</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>21453</v>
+        <v>21480</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>43367</v>
+        <v>42959</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1221743990481506</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08473840108210309</v>
+        <v>0.08484710244654801</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1713025680305219</v>
+        <v>0.1696905699545271</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -1482,19 +1482,19 @@
         <v>47049</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36311</v>
+        <v>35839</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>58844</v>
+        <v>58176</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2767598446367187</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2135954587129163</v>
+        <v>0.2108155363304181</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.346138756253922</v>
+        <v>0.3422078459885833</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>77</v>
@@ -1503,19 +1503,19 @@
         <v>77979</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63259</v>
+        <v>62085</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>96453</v>
+        <v>93991</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1842771805823085</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.149490944290961</v>
+        <v>0.1467172442686533</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2279322621009265</v>
+        <v>0.2221150141337679</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>63951</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>50349</v>
+        <v>49239</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>78768</v>
+        <v>78978</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1576144195565857</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1240908810290213</v>
+        <v>0.1213536738421143</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1941307377825165</v>
+        <v>0.1946492560927449</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>59</v>
@@ -1628,19 +1628,19 @@
         <v>63336</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>49781</v>
+        <v>49529</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>78803</v>
+        <v>78455</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2080725566482544</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1635404659685245</v>
+        <v>0.1627118715424348</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2588840048087381</v>
+        <v>0.2577407653699063</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1649,19 +1649,19 @@
         <v>127287</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>108870</v>
+        <v>107463</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>149496</v>
+        <v>148842</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1792428211816988</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1533081723524358</v>
+        <v>0.1513268086808931</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.210516546916731</v>
+        <v>0.2095953553054131</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>272836</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>253413</v>
+        <v>253434</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>290887</v>
+        <v>289384</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6724332131402442</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6245616494412682</v>
+        <v>0.6246148521905764</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7169210272161772</v>
+        <v>0.7132170381919408</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>167</v>
@@ -1699,19 +1699,19 @@
         <v>173523</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>154744</v>
+        <v>155772</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>189589</v>
+        <v>190999</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5700614888420416</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5083663420581784</v>
+        <v>0.5117433642796855</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6228393513565174</v>
+        <v>0.6274740725653625</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>454</v>
@@ -1720,19 +1720,19 @@
         <v>446360</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>419404</v>
+        <v>420819</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>469878</v>
+        <v>474474</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6285525450102577</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5905938518281106</v>
+        <v>0.5925869487939932</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6616711037179253</v>
+        <v>0.6681428451836123</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>68957</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>53643</v>
+        <v>55382</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>83790</v>
+        <v>86813</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1699523673031701</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1322087530587912</v>
+        <v>0.1364954195676467</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2065098886633848</v>
+        <v>0.213960219255284</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>66</v>
@@ -1770,19 +1770,19 @@
         <v>67535</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>53697</v>
+        <v>53353</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>81340</v>
+        <v>81650</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.221865954509704</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1764074268097568</v>
+        <v>0.1752765342415886</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2672199806442595</v>
+        <v>0.2682365810484514</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>135</v>
@@ -1791,19 +1791,19 @@
         <v>136492</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>117040</v>
+        <v>116398</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>159539</v>
+        <v>160011</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1922046338080435</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1648128825690948</v>
+        <v>0.1639094373411743</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2246583341676024</v>
+        <v>0.2253230999966356</v>
       </c>
     </row>
     <row r="19">
@@ -1895,19 +1895,19 @@
         <v>215817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>188295</v>
+        <v>191020</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>244337</v>
+        <v>246475</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1560027249101229</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1361079951544549</v>
+        <v>0.1380782491001688</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.176617771923253</v>
+        <v>0.1781636123130676</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>152</v>
@@ -1916,19 +1916,19 @@
         <v>159958</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>138411</v>
+        <v>138421</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183632</v>
+        <v>186369</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1852803045199973</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1603226508291286</v>
+        <v>0.1603337361530417</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2127017059751829</v>
+        <v>0.2158721928232974</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>362</v>
@@ -1937,19 +1937,19 @@
         <v>375775</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>342575</v>
+        <v>342071</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>413126</v>
+        <v>414131</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1672528496111313</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1524756991822979</v>
+        <v>0.1522513737518</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1838772078987084</v>
+        <v>0.1843246893033011</v>
       </c>
     </row>
     <row r="21">
@@ -1966,19 +1966,19 @@
         <v>975027</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>940013</v>
+        <v>941953</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>1012426</v>
+        <v>1008213</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7047943714214205</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.679484780146253</v>
+        <v>0.6808873783169015</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.731828099155324</v>
+        <v>0.7287833517273493</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>515</v>
@@ -1987,19 +1987,19 @@
         <v>526495</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>497754</v>
+        <v>498812</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>551490</v>
+        <v>556491</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6098417386294808</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.5765507574094</v>
+        <v>0.5777763322570553</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6387941739296521</v>
+        <v>0.644586220297986</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1468</v>
@@ -2008,19 +2008,19 @@
         <v>1501521</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1453754</v>
+        <v>1455509</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1544666</v>
+        <v>1547988</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6683081258426329</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6470475921271874</v>
+        <v>0.6478287580209584</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.6875113537488036</v>
+        <v>0.6889897188962755</v>
       </c>
     </row>
     <row r="22">
@@ -2037,19 +2037,19 @@
         <v>192576</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>168027</v>
+        <v>166248</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>219543</v>
+        <v>220423</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1392029036684565</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1214580129406926</v>
+        <v>0.1201719894130831</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1586960053155585</v>
+        <v>0.1593316063980911</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>178</v>
@@ -2058,19 +2058,19 @@
         <v>176877</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>155483</v>
+        <v>154123</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>202435</v>
+        <v>200972</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.204877956850522</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1800964439960327</v>
+        <v>0.1785216306458563</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2344816075500193</v>
+        <v>0.2327874657376076</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>362</v>
@@ -2079,19 +2079,19 @@
         <v>369453</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>335495</v>
+        <v>334654</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>404797</v>
+        <v>404464</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1644390245462358</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1493246499780266</v>
+        <v>0.1489500421922199</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1801699951788216</v>
+        <v>0.1800216575865614</v>
       </c>
     </row>
     <row r="23">
@@ -2423,19 +2423,19 @@
         <v>72862</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>59238</v>
+        <v>58686</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88062</v>
+        <v>87254</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2702768172286675</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2197410620141564</v>
+        <v>0.2176912211839341</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3266608057798214</v>
+        <v>0.3236611663098946</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2444,19 +2444,19 @@
         <v>35615</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>25406</v>
+        <v>25038</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>49161</v>
+        <v>47674</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2200647465120141</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1569846529145351</v>
+        <v>0.1547101027119042</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3037619400839555</v>
+        <v>0.2945736506160963</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>105</v>
@@ -2465,19 +2465,19 @@
         <v>108477</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>91745</v>
+        <v>92012</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>127113</v>
+        <v>128853</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2514406840396633</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2126571077833811</v>
+        <v>0.2132753035977416</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2946366004746397</v>
+        <v>0.2986702004091109</v>
       </c>
     </row>
     <row r="5">
@@ -2494,19 +2494,19 @@
         <v>153639</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>137886</v>
+        <v>138180</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>171546</v>
+        <v>170364</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.5699137062806238</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5114775503770373</v>
+        <v>0.5125695015275926</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6363377032717296</v>
+        <v>0.6319543854901882</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>82</v>
@@ -2515,19 +2515,19 @@
         <v>87862</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>74233</v>
+        <v>74158</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>100973</v>
+        <v>100450</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5428939519361594</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.4586810493741628</v>
+        <v>0.4582197078736897</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.623907751309758</v>
+        <v>0.6206737635958264</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>229</v>
@@ -2536,19 +2536,19 @@
         <v>241501</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>221508</v>
+        <v>220447</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>264747</v>
+        <v>261879</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.5597777432680945</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.5134357444352305</v>
+        <v>0.5109772218145001</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6136601544736238</v>
+        <v>0.6070131838681647</v>
       </c>
     </row>
     <row r="6">
@@ -2565,19 +2565,19 @@
         <v>43082</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>31882</v>
+        <v>32430</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>57071</v>
+        <v>56898</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1598094764907088</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.118262884113677</v>
+        <v>0.1202977298639122</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2117013605705067</v>
+        <v>0.2110578879173597</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>34</v>
@@ -2586,19 +2586,19 @@
         <v>38363</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>27912</v>
+        <v>28089</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>51455</v>
+        <v>51523</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2370413015518265</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1724655888179176</v>
+        <v>0.1735575110787154</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3179372358789372</v>
+        <v>0.3183546694444725</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>74</v>
@@ -2607,19 +2607,19 @@
         <v>81445</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>64571</v>
+        <v>65796</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>99732</v>
+        <v>99588</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1887815726922423</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1496704658972931</v>
+        <v>0.1525090897101717</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2311706111163308</v>
+        <v>0.2308360359069846</v>
       </c>
     </row>
     <row r="7">
@@ -2711,19 +2711,19 @@
         <v>136058</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>115664</v>
+        <v>116677</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>154821</v>
+        <v>157279</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3363322297697313</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2859172701896173</v>
+        <v>0.2884218168221848</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3827135794129516</v>
+        <v>0.3887903582543389</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>68</v>
@@ -2732,19 +2732,19 @@
         <v>74307</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>57419</v>
+        <v>59798</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>88814</v>
+        <v>91093</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2559243241682067</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.197759271278809</v>
+        <v>0.2059530290879663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3058905384481359</v>
+        <v>0.3137379547886811</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>188</v>
@@ -2753,19 +2753,19 @@
         <v>210365</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>184887</v>
+        <v>185896</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>236143</v>
+        <v>237821</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3027348470442874</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2660692299398671</v>
+        <v>0.2675218038300317</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3398311086108662</v>
+        <v>0.3422469502604292</v>
       </c>
     </row>
     <row r="9">
@@ -2782,19 +2782,19 @@
         <v>194630</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>174013</v>
+        <v>173545</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>214848</v>
+        <v>216945</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4811214415259641</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4301548072006263</v>
+        <v>0.4289983101719926</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5310987029997265</v>
+        <v>0.5362831373997782</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>143</v>
@@ -2803,19 +2803,19 @@
         <v>156672</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>139630</v>
+        <v>138591</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>173116</v>
+        <v>175349</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5396016188395912</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4809086552689434</v>
+        <v>0.4773271790749808</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.59623775226818</v>
+        <v>0.6039277816032191</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>325</v>
@@ -2824,19 +2824,19 @@
         <v>351302</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>323135</v>
+        <v>324488</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>377545</v>
+        <v>382234</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5055566122266483</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.46502209247443</v>
+        <v>0.4669689286308452</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5433219186905768</v>
+        <v>0.5500696730431367</v>
       </c>
     </row>
     <row r="10">
@@ -2853,19 +2853,19 @@
         <v>73846</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>58787</v>
+        <v>57881</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>93289</v>
+        <v>90830</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1825463287043046</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1453191841180793</v>
+        <v>0.143081453309248</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2306077627728687</v>
+        <v>0.224529044866747</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>54</v>
@@ -2874,19 +2874,19 @@
         <v>59368</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>46481</v>
+        <v>44478</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>75091</v>
+        <v>72819</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2044740569922021</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1600887012298542</v>
+        <v>0.1531881439460067</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.258623553154735</v>
+        <v>0.2507989692794469</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>122</v>
@@ -2895,19 +2895,19 @@
         <v>133215</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>112522</v>
+        <v>109522</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>156706</v>
+        <v>155392</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1917085407290643</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.161929950777335</v>
+        <v>0.1576121883099016</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2255147820723886</v>
+        <v>0.2236238995580904</v>
       </c>
     </row>
     <row r="11">
@@ -2999,19 +2999,19 @@
         <v>98556</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>81562</v>
+        <v>81761</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>118290</v>
+        <v>117398</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3131981647273807</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2591912389978562</v>
+        <v>0.2598245395628843</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3759089071765723</v>
+        <v>0.3730740061260442</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>60</v>
@@ -3020,19 +3020,19 @@
         <v>67481</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>54635</v>
+        <v>53678</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>83471</v>
+        <v>82607</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2935263847712808</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2376529669755492</v>
+        <v>0.2334892334352929</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3630815313467614</v>
+        <v>0.3593225570027068</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>146</v>
@@ -3041,19 +3041,19 @@
         <v>166037</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>145377</v>
+        <v>145350</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>190430</v>
+        <v>190282</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3048935648780856</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2669562968810731</v>
+        <v>0.2669056605302391</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3496876890117355</v>
+        <v>0.3494151878692406</v>
       </c>
     </row>
     <row r="13">
@@ -3070,19 +3070,19 @@
         <v>163531</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142671</v>
+        <v>143510</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>180084</v>
+        <v>181046</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.5196791461172765</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4533872777702921</v>
+        <v>0.4560564224838882</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5722830313356467</v>
+        <v>0.5753401791820169</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>97</v>
@@ -3091,19 +3091,19 @@
         <v>107833</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>91341</v>
+        <v>92328</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>124184</v>
+        <v>125779</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4690524283114209</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3973122724410696</v>
+        <v>0.4016078776139559</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.5401766903427685</v>
+        <v>0.5471113307110703</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>247</v>
@@ -3112,19 +3112,19 @@
         <v>271364</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>246102</v>
+        <v>246869</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>295805</v>
+        <v>294345</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4983066707236381</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4519179249750271</v>
+        <v>0.4533257669613429</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5431862771996003</v>
+        <v>0.5405059507015324</v>
       </c>
     </row>
     <row r="14">
@@ -3141,19 +3141,19 @@
         <v>52590</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38983</v>
+        <v>39543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67289</v>
+        <v>68539</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1671226891553428</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1238834980581395</v>
+        <v>0.1256615723145607</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2138340154810286</v>
+        <v>0.2178079035260874</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>49</v>
@@ -3162,19 +3162,19 @@
         <v>54582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>42035</v>
+        <v>42206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>68726</v>
+        <v>68915</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2374211869172983</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1828433105033749</v>
+        <v>0.1835869142730911</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2989421046694869</v>
+        <v>0.2997651761201002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>98</v>
@@ -3183,19 +3183,19 @@
         <v>107172</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>89550</v>
+        <v>88657</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>126664</v>
+        <v>129481</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1967997643982763</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1644408900363445</v>
+        <v>0.1628006269712415</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2325924668049539</v>
+        <v>0.2377654227888713</v>
       </c>
     </row>
     <row r="15">
@@ -3287,19 +3287,19 @@
         <v>98586</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81148</v>
+        <v>82153</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>116743</v>
+        <v>116443</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2705894594113026</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2227269997363336</v>
+        <v>0.2254862591541308</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3204248343294079</v>
+        <v>0.3196011910490075</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -3308,19 +3308,19 @@
         <v>80785</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>65132</v>
+        <v>65629</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>97035</v>
+        <v>96043</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2746062233931463</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2213987869892122</v>
+        <v>0.2230879689736577</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3298422565423096</v>
+        <v>0.326470530605372</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>173</v>
@@ -3329,19 +3329,19 @@
         <v>179371</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>156707</v>
+        <v>156664</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>204154</v>
+        <v>206555</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2723838926421046</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2379676646696703</v>
+        <v>0.2379023967742355</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3100177452050336</v>
+        <v>0.313663724805693</v>
       </c>
     </row>
     <row r="17">
@@ -3358,19 +3358,19 @@
         <v>218375</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>198684</v>
+        <v>199415</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>237478</v>
+        <v>235341</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.5993764286621222</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5453312994641862</v>
+        <v>0.5473357582932672</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6518073831015543</v>
+        <v>0.6459418669222482</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>150</v>
@@ -3379,19 +3379,19 @@
         <v>159699</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>141174</v>
+        <v>141848</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>177954</v>
+        <v>176799</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5428495543115693</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4798815082641623</v>
+        <v>0.4821726368694839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6049032116692511</v>
+        <v>0.6009758074731145</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>362</v>
@@ -3400,19 +3400,19 @@
         <v>378074</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>352051</v>
+        <v>349767</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>404665</v>
+        <v>405818</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5741238367183351</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5346063554658211</v>
+        <v>0.5311371043835528</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6145033650188578</v>
+        <v>0.6162537814279229</v>
       </c>
     </row>
     <row r="18">
@@ -3429,19 +3429,19 @@
         <v>47376</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>35410</v>
+        <v>35163</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>62579</v>
+        <v>62158</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1300341119265752</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09719021894012317</v>
+        <v>0.09651209158231398</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1717614855672187</v>
+        <v>0.1706059781425265</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>52</v>
@@ -3450,19 +3450,19 @@
         <v>53702</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>41533</v>
+        <v>41727</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>67228</v>
+        <v>69446</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1825442222952844</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1411793130901403</v>
+        <v>0.1418388269697891</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2285210909644894</v>
+        <v>0.23606177110194</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>97</v>
@@ -3471,19 +3471,19 @@
         <v>101078</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>82274</v>
+        <v>84098</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>121147</v>
+        <v>122325</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1534922706395603</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1249362458123493</v>
+        <v>0.1277064207750145</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1839681695119118</v>
+        <v>0.1857556896718251</v>
       </c>
     </row>
     <row r="19">
@@ -3575,19 +3575,19 @@
         <v>406062</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>372483</v>
+        <v>366215</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>442984</v>
+        <v>438450</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3000905972334366</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2752750337473396</v>
+        <v>0.270642366018523</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3273768866232208</v>
+        <v>0.3240257561695226</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>237</v>
@@ -3596,19 +3596,19 @@
         <v>258188</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>230494</v>
+        <v>229660</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>287959</v>
+        <v>285997</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2644639569567376</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2360961339416115</v>
+        <v>0.2352426229173227</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2949585368991613</v>
+        <v>0.2929482519259787</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>612</v>
@@ -3617,19 +3617,19 @@
         <v>664250</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>619915</v>
+        <v>619482</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>708446</v>
+        <v>708477</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.285159203998241</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2661262231909438</v>
+        <v>0.2659401857350793</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3041319435156949</v>
+        <v>0.3041453273482898</v>
       </c>
     </row>
     <row r="21">
@@ -3646,19 +3646,19 @@
         <v>730176</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>693274</v>
+        <v>691176</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>765869</v>
+        <v>770470</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.5396189194697202</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.5123473068250998</v>
+        <v>0.5107973233466294</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5659974173578577</v>
+        <v>0.5693977835625742</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>472</v>
@@ -3667,19 +3667,19 @@
         <v>512066</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>479274</v>
+        <v>479421</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>543907</v>
+        <v>544640</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.5245129264439902</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.4909233036461051</v>
+        <v>0.4910745978839425</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5571274376556867</v>
+        <v>0.5578782196150346</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1163</v>
@@ -3688,19 +3688,19 @@
         <v>1242242</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1191637</v>
+        <v>1184173</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1294105</v>
+        <v>1287044</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.533287884033218</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.5115632815575238</v>
+        <v>0.5083591757832555</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5555523281187997</v>
+        <v>0.5525213392241209</v>
       </c>
     </row>
     <row r="22">
@@ -3717,19 +3717,19 @@
         <v>216894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>189086</v>
+        <v>190283</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>245285</v>
+        <v>246359</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1602904832968432</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1397395109932186</v>
+        <v>0.1406239536732701</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1812720524886706</v>
+        <v>0.1820658060043867</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>189</v>
@@ -3738,19 +3738,19 @@
         <v>206016</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>181441</v>
+        <v>181159</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>232026</v>
+        <v>233668</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2110231165992723</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1858507551635206</v>
+        <v>0.1855624688247544</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2376659511400016</v>
+        <v>0.2393476775645219</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>391</v>
@@ -3759,19 +3759,19 @@
         <v>422910</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>385532</v>
+        <v>385854</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>462797</v>
+        <v>461350</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.181552911968541</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1655066535796891</v>
+        <v>0.1656449182642601</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1986763157943169</v>
+        <v>0.1980551751417585</v>
       </c>
     </row>
     <row r="23">
@@ -4103,19 +4103,19 @@
         <v>48498</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>36866</v>
+        <v>36788</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>61878</v>
+        <v>62344</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1943411269160963</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1477316027937774</v>
+        <v>0.147417266160329</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2479603061707117</v>
+        <v>0.2498272486660483</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -4124,19 +4124,19 @@
         <v>29059</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>20664</v>
+        <v>20444</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40194</v>
+        <v>39439</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1725527471391006</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1226990865320271</v>
+        <v>0.1213945251308772</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2386716171818025</v>
+        <v>0.2341865340412331</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>75</v>
@@ -4145,19 +4145,19 @@
         <v>77557</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>61904</v>
+        <v>60893</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>95158</v>
+        <v>94071</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.185561890945941</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1481096537927297</v>
+        <v>0.1456912852021821</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2276715882078753</v>
+        <v>0.2250721104488977</v>
       </c>
     </row>
     <row r="5">
@@ -4174,19 +4174,19 @@
         <v>176462</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>161771</v>
+        <v>159593</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>190600</v>
+        <v>190350</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7071197793637333</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6482501765583815</v>
+        <v>0.6395242839038083</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7637748012514668</v>
+        <v>0.7627723991545191</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -4195,19 +4195,19 @@
         <v>120063</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>107718</v>
+        <v>108392</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>131079</v>
+        <v>131111</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7129277197421151</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6396191627441897</v>
+        <v>0.643625435219832</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7783397686439065</v>
+        <v>0.778528114758138</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>289</v>
@@ -4216,19 +4216,19 @@
         <v>296526</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>278520</v>
+        <v>275901</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>317242</v>
+        <v>316378</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7094599845375132</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6663797671701186</v>
+        <v>0.6601137973505213</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7590248333450129</v>
+        <v>0.7569570612808595</v>
       </c>
     </row>
     <row r="6">
@@ -4245,19 +4245,19 @@
         <v>24590</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>16014</v>
+        <v>15960</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>35670</v>
+        <v>36593</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.09853909372017038</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.064171783389259</v>
+        <v>0.06395457610162467</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1429377768373742</v>
+        <v>0.1466352087272738</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>19</v>
@@ -4266,19 +4266,19 @@
         <v>19286</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>11974</v>
+        <v>12506</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>28836</v>
+        <v>29668</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1145195331187843</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07110356441518401</v>
+        <v>0.07425727030364629</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1712257963708035</v>
+        <v>0.176163646181203</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>40</v>
@@ -4287,19 +4287,19 @@
         <v>43877</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>31905</v>
+        <v>31688</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>57026</v>
+        <v>58510</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1049781245165457</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.07633595208174442</v>
+        <v>0.07581587652720351</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.136439400428862</v>
+        <v>0.1399900893710032</v>
       </c>
     </row>
     <row r="7">
@@ -4391,19 +4391,19 @@
         <v>67569</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>54183</v>
+        <v>52310</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84939</v>
+        <v>82524</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2029512123298409</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1627454126889321</v>
+        <v>0.1571190959214362</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2551250586537132</v>
+        <v>0.2478703217792902</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>54</v>
@@ -4412,19 +4412,19 @@
         <v>56779</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>44452</v>
+        <v>44820</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>71102</v>
+        <v>70700</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2118564088912796</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1658628248763249</v>
+        <v>0.1672353678862072</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.265298682011605</v>
+        <v>0.2638017243510972</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>114</v>
@@ -4433,19 +4433,19 @@
         <v>124348</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>105152</v>
+        <v>103012</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>145055</v>
+        <v>144318</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2069227507712716</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1749808985924357</v>
+        <v>0.171419681244955</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2413820948607561</v>
+        <v>0.2401551497667229</v>
       </c>
     </row>
     <row r="9">
@@ -4462,19 +4462,19 @@
         <v>227538</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>207989</v>
+        <v>209196</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>243447</v>
+        <v>245314</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.6834401282846388</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.6247223676573627</v>
+        <v>0.6283477047362158</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7312223066251272</v>
+        <v>0.7368320774444084</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>170</v>
@@ -4483,19 +4483,19 @@
         <v>173722</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>156760</v>
+        <v>157047</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>188844</v>
+        <v>188961</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.6482014339658202</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5849123513022932</v>
+        <v>0.5859843580788875</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.7046246329593697</v>
+        <v>0.7050637690072264</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>377</v>
@@ -4504,19 +4504,19 @@
         <v>401260</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>378616</v>
+        <v>378086</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>422494</v>
+        <v>426258</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6677243798283908</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.6300420177506589</v>
+        <v>0.6291611407891713</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.7030582076575883</v>
+        <v>0.7093215384003697</v>
       </c>
     </row>
     <row r="10">
@@ -4533,19 +4533,19 @@
         <v>37824</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>26574</v>
+        <v>27718</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51850</v>
+        <v>51527</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1136086593855203</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07981925849525918</v>
+        <v>0.08325411292315592</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1557383368428587</v>
+        <v>0.1547680863067505</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>34</v>
@@ -4554,19 +4554,19 @@
         <v>37505</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>27015</v>
+        <v>26782</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>50612</v>
+        <v>51533</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1399421571429002</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1008010774446582</v>
+        <v>0.09993132837664652</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1888461172750092</v>
+        <v>0.1922841242102382</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>68</v>
@@ -4575,19 +4575,19 @@
         <v>75329</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59960</v>
+        <v>61237</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>93374</v>
+        <v>96150</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1253528694003376</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.09977670010192999</v>
+        <v>0.1019017440504571</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1553805275628403</v>
+        <v>0.1599993262892967</v>
       </c>
     </row>
     <row r="11">
@@ -4679,19 +4679,19 @@
         <v>53577</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>40307</v>
+        <v>40845</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>67673</v>
+        <v>68935</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1739533951546702</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1308685802399618</v>
+        <v>0.1326174920287709</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2197218468709027</v>
+        <v>0.2238207145263472</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>53</v>
@@ -4700,19 +4700,19 @@
         <v>54791</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>42726</v>
+        <v>43360</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>68616</v>
+        <v>68335</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2452925712253905</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1912798093599932</v>
+        <v>0.1941170096775421</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3071856046142172</v>
+        <v>0.3059280209378</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>102</v>
@@ -4721,19 +4721,19 @@
         <v>108367</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>90353</v>
+        <v>90002</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>128317</v>
+        <v>126917</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2039423229619546</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1700393228966364</v>
+        <v>0.1693792825760921</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2414857272726964</v>
+        <v>0.2388513781170619</v>
       </c>
     </row>
     <row r="13">
@@ -4750,19 +4750,19 @@
         <v>218266</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>202984</v>
+        <v>198769</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>234210</v>
+        <v>233635</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7086697536194976</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.6590532252019601</v>
+        <v>0.6453657787111327</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7604371631663177</v>
+        <v>0.7585703190607909</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>140</v>
@@ -4771,19 +4771,19 @@
         <v>145498</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>131680</v>
+        <v>129257</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>159817</v>
+        <v>158317</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.6513768711143895</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.5895130900635069</v>
+        <v>0.578666165727843</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.715483126235138</v>
+        <v>0.7087640218316986</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>334</v>
@@ -4792,19 +4792,19 @@
         <v>363763</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>340021</v>
+        <v>340884</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>385393</v>
+        <v>383165</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.6845854816675245</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.6399037091310881</v>
+        <v>0.6415266290050522</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.7252908552980417</v>
+        <v>0.7210982863138014</v>
       </c>
     </row>
     <row r="14">
@@ -4821,19 +4821,19 @@
         <v>36151</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>25819</v>
+        <v>25027</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>51071</v>
+        <v>49879</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1173768512258322</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.08383094239106116</v>
+        <v>0.0812569978369338</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.165817964483718</v>
+        <v>0.1619474089511284</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>23</v>
@@ -4842,19 +4842,19 @@
         <v>23081</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>15304</v>
+        <v>15097</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>33564</v>
+        <v>32924</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.10333055766022</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.06851545262487618</v>
+        <v>0.06758929307288564</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1502609744250296</v>
+        <v>0.1473946809397312</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -4863,19 +4863,19 @@
         <v>59232</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>45279</v>
+        <v>45199</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>75056</v>
+        <v>75975</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1114721953705208</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.08521230515918393</v>
+        <v>0.08506168670132341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1412509062312894</v>
+        <v>0.1429813251726251</v>
       </c>
     </row>
     <row r="15">
@@ -4967,19 +4967,19 @@
         <v>88292</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>73820</v>
+        <v>73500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>104142</v>
+        <v>104428</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3154847045154427</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2637719561887985</v>
+        <v>0.2626280431360203</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3721165325567785</v>
+        <v>0.3731402023738309</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -4988,19 +4988,19 @@
         <v>57605</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44905</v>
+        <v>45573</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>72394</v>
+        <v>73701</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.22458231793938</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1750698188971771</v>
+        <v>0.1776736148014645</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2822396353191704</v>
+        <v>0.2873383872826817</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>138</v>
@@ -5009,19 +5009,19 @@
         <v>145897</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>125893</v>
+        <v>126764</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>167230</v>
+        <v>166461</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2720135610392399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2347161331208968</v>
+        <v>0.2363413164112953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3117870133479227</v>
+        <v>0.310352501070571</v>
       </c>
     </row>
     <row r="17">
@@ -5038,19 +5038,19 @@
         <v>150266</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>134318</v>
+        <v>133322</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>166492</v>
+        <v>167068</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.536925384486726</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.4799402015481627</v>
+        <v>0.476382006455801</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5949071045185437</v>
+        <v>0.5969634403909783</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>152</v>
@@ -5059,19 +5059,19 @@
         <v>156190</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>139204</v>
+        <v>139708</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>170572</v>
+        <v>171354</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6089336785945829</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.542712310721884</v>
+        <v>0.5446765903123627</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6650063262167237</v>
+        <v>0.6680545560931204</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>302</v>
@@ -5080,19 +5080,19 @@
         <v>306456</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>284794</v>
+        <v>283976</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>331568</v>
+        <v>330512</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5713610357665743</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5309743945875472</v>
+        <v>0.529449182588966</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6181808730557161</v>
+        <v>0.6162117993076249</v>
       </c>
     </row>
     <row r="18">
@@ -5109,19 +5109,19 @@
         <v>41305</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>30815</v>
+        <v>29888</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>53242</v>
+        <v>53766</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.1475899109978313</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1101083758848279</v>
+        <v>0.1067936282803027</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.1902417643893901</v>
+        <v>0.1921159089885547</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>41</v>
@@ -5130,19 +5130,19 @@
         <v>42703</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>31354</v>
+        <v>31539</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>55668</v>
+        <v>54885</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.166484003466037</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1222396838538903</v>
+        <v>0.1229609446239333</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2170299016241065</v>
+        <v>0.2139790693534225</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>81</v>
@@ -5151,19 +5151,19 @@
         <v>84008</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>69195</v>
+        <v>66630</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>102931</v>
+        <v>100473</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1566254031941858</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1290080618601955</v>
+        <v>0.1242256809756992</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.1919055655010273</v>
+        <v>0.1873237606434299</v>
       </c>
     </row>
     <row r="19">
@@ -5255,19 +5255,19 @@
         <v>257936</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>229315</v>
+        <v>229057</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>286002</v>
+        <v>291214</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2203942122325459</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1959387493780188</v>
+        <v>0.1957186668884082</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2443752048178386</v>
+        <v>0.2488293558788869</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>188</v>
@@ -5276,19 +5276,19 @@
         <v>198234</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>173608</v>
+        <v>175536</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223720</v>
+        <v>225376</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2163459522732243</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1894704253169231</v>
+        <v>0.1915744612863867</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2441601906057396</v>
+        <v>0.2459677524736186</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>429</v>
@@ -5297,19 +5297,19 @@
         <v>456170</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>416257</v>
+        <v>420308</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>495913</v>
+        <v>496454</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2186165300287617</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.199488723344187</v>
+        <v>0.2014300289402908</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2376631903203724</v>
+        <v>0.237922629191992</v>
       </c>
     </row>
     <row r="21">
@@ -5326,19 +5326,19 @@
         <v>772532</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>741120</v>
+        <v>736147</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>808178</v>
+        <v>806639</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6600927908754385</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6332526443645012</v>
+        <v>0.6290034568280812</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6905509024628296</v>
+        <v>0.689236266012793</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>582</v>
@@ -5347,19 +5347,19 @@
         <v>595473</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>565403</v>
+        <v>565584</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>622618</v>
+        <v>624583</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.6498796673799818</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.617062457613841</v>
+        <v>0.6172599531641055</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.6795051134616926</v>
+        <v>0.6816492200697272</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1302</v>
@@ -5368,19 +5368,19 @@
         <v>1368005</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1324875</v>
+        <v>1322390</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1410131</v>
+        <v>1411967</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.6556079781249339</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.6349382494925455</v>
+        <v>0.6337475648389619</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.675796605816517</v>
+        <v>0.6766764080702975</v>
       </c>
     </row>
     <row r="22">
@@ -5397,19 +5397,19 @@
         <v>139871</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>118662</v>
+        <v>118314</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>163676</v>
+        <v>166929</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1195129968920156</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1013912640705089</v>
+        <v>0.1010941237669586</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1398538642634919</v>
+        <v>0.1426328996485722</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>117</v>
@@ -5418,19 +5418,19 @@
         <v>122575</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102767</v>
+        <v>102798</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>143803</v>
+        <v>143335</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.133774380346794</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1121562418956451</v>
+        <v>0.1121899977753541</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.1569419671038547</v>
+        <v>0.1564315514637959</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>244</v>
@@ -5439,19 +5439,19 @@
         <v>262446</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>232399</v>
+        <v>235449</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>291935</v>
+        <v>295250</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1257754918463044</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1113756988683304</v>
+        <v>0.1128376655524191</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1399080449201578</v>
+        <v>0.1414968554986906</v>
       </c>
     </row>
     <row r="23">
